--- a/raw/1958election.xlsx
+++ b/raw/1958election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83B9FA-4E85-C648-ADF0-A2DF5ACEED30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA5930-63A4-6F43-B48D-0D7E86E86E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="16340" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5673" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1675">
   <si>
     <t>State</t>
   </si>
@@ -5525,7 +5525,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5832,8 +5832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A805" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D816" sqref="D816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10831,7 +10831,7 @@
         <v>7</v>
       </c>
       <c r="D220">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E220" t="s">
         <v>290</v>
@@ -24229,8 +24229,8 @@
       <c r="C812" t="s">
         <v>1372</v>
       </c>
-      <c r="D812" t="s">
-        <v>148</v>
+      <c r="D812">
+        <v>21</v>
       </c>
       <c r="E812" t="s">
         <v>1567</v>
@@ -24252,8 +24252,8 @@
       <c r="C813" t="s">
         <v>1372</v>
       </c>
-      <c r="D813" t="s">
-        <v>148</v>
+      <c r="D813">
+        <v>21</v>
       </c>
       <c r="E813" t="s">
         <v>947</v>
@@ -24275,8 +24275,8 @@
       <c r="C814" t="s">
         <v>1372</v>
       </c>
-      <c r="D814" t="s">
-        <v>148</v>
+      <c r="D814">
+        <v>22</v>
       </c>
       <c r="E814" t="s">
         <v>1568</v>
@@ -24298,8 +24298,8 @@
       <c r="C815" t="s">
         <v>1372</v>
       </c>
-      <c r="D815" t="s">
-        <v>148</v>
+      <c r="D815">
+        <v>22</v>
       </c>
       <c r="E815" t="s">
         <v>948</v>

--- a/raw/1958election.xlsx
+++ b/raw/1958election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA5930-63A4-6F43-B48D-0D7E86E86E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C9582-6329-5041-AA1A-4E16312B6988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="16340" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5832,8 +5832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D816" sqref="D816"/>
+    <sheetView tabSelected="1" topLeftCell="C808" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G818" sqref="G818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -24331,7 +24331,7 @@
         <v>10</v>
       </c>
       <c r="G816">
-        <v>95267</v>
+        <v>47953</v>
       </c>
     </row>
     <row r="817" spans="1:7">
@@ -24354,7 +24354,7 @@
         <v>33</v>
       </c>
       <c r="G817">
-        <v>47953</v>
+        <v>95267</v>
       </c>
     </row>
     <row r="818" spans="1:7">
